--- a/SMELuckyDraw/bin/Debug/excel/namelist.xlsx
+++ b/SMELuckyDraw/bin/Debug/excel/namelist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -21,37 +21,37 @@
     <t>i076652</t>
   </si>
   <si>
-    <t>Wang, Zhenjun</t>
-  </si>
-  <si>
     <t>c5169789</t>
   </si>
   <si>
-    <t>Peter, Zhang</t>
-  </si>
-  <si>
     <t>d2122378</t>
   </si>
   <si>
-    <t>Micheal, Peng</t>
-  </si>
-  <si>
     <t>i312231</t>
   </si>
   <si>
-    <t>Zhang, Fu</t>
-  </si>
-  <si>
     <t>i066088</t>
   </si>
   <si>
-    <t>Andy, Liu</t>
-  </si>
-  <si>
     <t>i047892</t>
   </si>
   <si>
-    <t>Mike, Zhu</t>
+    <t>Zhang, San</t>
+  </si>
+  <si>
+    <t>Li, Si</t>
+  </si>
+  <si>
+    <t>Wang, Wu</t>
+  </si>
+  <si>
+    <t>Zhou, Liu</t>
+  </si>
+  <si>
+    <t>Wu, Qi</t>
+  </si>
+  <si>
+    <t>Zheng, Ba</t>
   </si>
 </sst>
 </file>
@@ -62,7 +62,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -91,7 +91,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -99,12 +99,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -146,7 +149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,7 +184,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,54 +396,54 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -457,7 +460,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -469,7 +472,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SMELuckyDraw/bin/Debug/excel/namelist.xlsx
+++ b/SMELuckyDraw/bin/Debug/excel/namelist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>i076652</t>
   </si>
@@ -52,6 +52,60 @@
   </si>
   <si>
     <t>Zheng, Ba</t>
+  </si>
+  <si>
+    <t>Zhang, SanA</t>
+  </si>
+  <si>
+    <t>Li, SiA</t>
+  </si>
+  <si>
+    <t>Wang, WuA</t>
+  </si>
+  <si>
+    <t>Zhou, LiuA</t>
+  </si>
+  <si>
+    <t>Wu, QiA</t>
+  </si>
+  <si>
+    <t>Zheng, BaA</t>
+  </si>
+  <si>
+    <t>Zhang, SanB</t>
+  </si>
+  <si>
+    <t>Li, SiB</t>
+  </si>
+  <si>
+    <t>Wang, WuB</t>
+  </si>
+  <si>
+    <t>Zhou, LiuB</t>
+  </si>
+  <si>
+    <t>Wu, QiB</t>
+  </si>
+  <si>
+    <t>Zheng, BaB</t>
+  </si>
+  <si>
+    <t>Zheng, BaC</t>
+  </si>
+  <si>
+    <t>Wu, QiC</t>
+  </si>
+  <si>
+    <t>Zhou, LiuC</t>
+  </si>
+  <si>
+    <t>Wang, WuC</t>
+  </si>
+  <si>
+    <t>Li, SiC</t>
+  </si>
+  <si>
+    <t>Zhang, SanC</t>
   </si>
 </sst>
 </file>
@@ -62,7 +116,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -91,7 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -107,7 +161,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -149,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,7 +238,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,15 +447,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -417,7 +474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -425,7 +482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -433,7 +490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -441,12 +498,156 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -460,7 +661,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -472,7 +673,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
